--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H2">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I2">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J2">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>139.822991265387</v>
+        <v>990.382454625564</v>
       </c>
       <c r="R2">
-        <v>1258.406921388483</v>
+        <v>8913.442091630075</v>
       </c>
       <c r="S2">
-        <v>5.181818152816353E-05</v>
+        <v>0.0003010225349438765</v>
       </c>
       <c r="T2">
-        <v>5.181818152816355E-05</v>
+        <v>0.0003010225349438765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H3">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I3">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J3">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>11434.57733614769</v>
+        <v>15443.56199570646</v>
       </c>
       <c r="R3">
-        <v>102911.1960253293</v>
+        <v>138992.0579613582</v>
       </c>
       <c r="S3">
-        <v>0.004237636448341406</v>
+        <v>0.004694004986455536</v>
       </c>
       <c r="T3">
-        <v>0.004237636448341407</v>
+        <v>0.004694004986455536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H4">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I4">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J4">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>10616.70932881738</v>
+        <v>18272.503281724</v>
       </c>
       <c r="R4">
-        <v>95550.38395935639</v>
+        <v>164452.529535516</v>
       </c>
       <c r="S4">
-        <v>0.00393453584602715</v>
+        <v>0.005553849658730498</v>
       </c>
       <c r="T4">
-        <v>0.00393453584602715</v>
+        <v>0.005553849658730498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H5">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I5">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J5">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>1838.887700768887</v>
+        <v>1743.751084509357</v>
       </c>
       <c r="R5">
-        <v>16549.98930691998</v>
+        <v>15693.75976058421</v>
       </c>
       <c r="S5">
-        <v>0.0006814889012601022</v>
+        <v>0.000530005725887575</v>
       </c>
       <c r="T5">
-        <v>0.0006814889012601024</v>
+        <v>0.000530005725887575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H6">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I6">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J6">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>4283.821431176765</v>
+        <v>5910.7841959618</v>
       </c>
       <c r="R6">
-        <v>38554.39288059089</v>
+        <v>53197.05776365619</v>
       </c>
       <c r="S6">
-        <v>0.001587577511724324</v>
+        <v>0.001796557717540866</v>
       </c>
       <c r="T6">
-        <v>0.001587577511724325</v>
+        <v>0.001796557717540866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.94220366666666</v>
+        <v>107.970093</v>
       </c>
       <c r="H7">
-        <v>239.826611</v>
+        <v>323.910279</v>
       </c>
       <c r="I7">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="J7">
-        <v>0.01421731517517826</v>
+        <v>0.02082010292543709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>10049.30930569114</v>
+        <v>26138.4223382905</v>
       </c>
       <c r="R7">
-        <v>90443.78375122028</v>
+        <v>235245.8010446145</v>
       </c>
       <c r="S7">
-        <v>0.003724258286297116</v>
+        <v>0.007944662301878741</v>
       </c>
       <c r="T7">
-        <v>0.003724258286297116</v>
+        <v>0.007944662301878741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>237.850944</v>
       </c>
       <c r="I8">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J8">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>138.671143818048</v>
+        <v>727.2489236247042</v>
       </c>
       <c r="R8">
-        <v>1248.040294362432</v>
+        <v>6545.240312622336</v>
       </c>
       <c r="S8">
-        <v>5.139130866856582E-05</v>
+        <v>0.0002210442173144929</v>
       </c>
       <c r="T8">
-        <v>5.139130866856584E-05</v>
+        <v>0.0002210442173144929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>237.850944</v>
       </c>
       <c r="I9">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J9">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>11340.38046196523</v>
@@ -1013,10 +1013,10 @@
         <v>102063.4241576871</v>
       </c>
       <c r="S9">
-        <v>0.004202727234330184</v>
+        <v>0.003446860410284036</v>
       </c>
       <c r="T9">
-        <v>0.004202727234330185</v>
+        <v>0.003446860410284036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>237.850944</v>
       </c>
       <c r="I10">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J10">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>10529.24996731418</v>
+        <v>13417.7037178902</v>
       </c>
       <c r="R10">
-        <v>94763.24970582761</v>
+        <v>120759.3334610118</v>
       </c>
       <c r="S10">
-        <v>0.003902123543660451</v>
+        <v>0.004078253978976465</v>
       </c>
       <c r="T10">
-        <v>0.003902123543660451</v>
+        <v>0.004078253978976465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>237.850944</v>
       </c>
       <c r="I11">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J11">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>1823.739132676438</v>
+        <v>1280.455942404886</v>
       </c>
       <c r="R11">
-        <v>16413.65219408794</v>
+        <v>11524.10348164397</v>
       </c>
       <c r="S11">
-        <v>0.0006758748656554971</v>
+        <v>0.0003891891378592681</v>
       </c>
       <c r="T11">
-        <v>0.0006758748656554972</v>
+        <v>0.000389189137859268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>237.850944</v>
       </c>
       <c r="I12">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J12">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>4248.531750018454</v>
+        <v>4340.355005497665</v>
       </c>
       <c r="R12">
-        <v>38236.78575016608</v>
+        <v>39063.19504947899</v>
       </c>
       <c r="S12">
-        <v>0.001574499211168863</v>
+        <v>0.001319232444202799</v>
       </c>
       <c r="T12">
-        <v>0.001574499211168863</v>
+        <v>0.001319232444202799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>237.850944</v>
       </c>
       <c r="I13">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="J13">
-        <v>0.01410019439236322</v>
+        <v>0.01528843465629065</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>9966.524127327235</v>
+        <v>19193.73613899139</v>
       </c>
       <c r="R13">
-        <v>89698.71714594512</v>
+        <v>172743.6252509225</v>
       </c>
       <c r="S13">
-        <v>0.003693578228879661</v>
+        <v>0.005833854467653593</v>
       </c>
       <c r="T13">
-        <v>0.003693578228879661</v>
+        <v>0.005833854467653593</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H14">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I14">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J14">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>3772.863635762721</v>
+        <v>14414.55769050591</v>
       </c>
       <c r="R14">
-        <v>33955.77272186449</v>
+        <v>129731.0192145532</v>
       </c>
       <c r="S14">
-        <v>0.001398217353166841</v>
+        <v>0.004381243504289799</v>
       </c>
       <c r="T14">
-        <v>0.001398217353166842</v>
+        <v>0.004381243504289798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H15">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I15">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J15">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>308540.8245914686</v>
+        <v>224773.8884047364</v>
       </c>
       <c r="R15">
-        <v>2776867.421323217</v>
+        <v>2022964.995642627</v>
       </c>
       <c r="S15">
-        <v>0.114344746259822</v>
+        <v>0.06831906740751667</v>
       </c>
       <c r="T15">
-        <v>0.114344746259822</v>
+        <v>0.06831906740751667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H16">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I16">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J16">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>286472.1759680562</v>
+        <v>265947.8179103542</v>
       </c>
       <c r="R16">
-        <v>2578249.583712506</v>
+        <v>2393530.361193188</v>
       </c>
       <c r="S16">
-        <v>0.1061661396508507</v>
+        <v>0.08083370816624004</v>
       </c>
       <c r="T16">
-        <v>0.1061661396508507</v>
+        <v>0.08083370816624004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H17">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I17">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J17">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>49618.96805164199</v>
+        <v>25379.48899250782</v>
       </c>
       <c r="R17">
-        <v>446570.7124647779</v>
+        <v>228415.4009325703</v>
       </c>
       <c r="S17">
-        <v>0.0183887118310894</v>
+        <v>0.007713987739204555</v>
       </c>
       <c r="T17">
-        <v>0.0183887118310894</v>
+        <v>0.007713987739204554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H18">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I18">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J18">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>115590.9622124411</v>
+        <v>86028.72495457747</v>
       </c>
       <c r="R18">
-        <v>1040318.65991197</v>
+        <v>774258.5245911973</v>
       </c>
       <c r="S18">
-        <v>0.0428378295209746</v>
+        <v>0.0261480650660428</v>
       </c>
       <c r="T18">
-        <v>0.0428378295209746</v>
+        <v>0.0261480650660428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2157.091837666667</v>
+        <v>1571.454671</v>
       </c>
       <c r="H19">
-        <v>6471.275513000001</v>
+        <v>4714.364013</v>
       </c>
       <c r="I19">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="J19">
-        <v>0.3836278350017397</v>
+        <v>0.3030269501840559</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>271161.9405424619</v>
+        <v>380432.6247646869</v>
       </c>
       <c r="R19">
-        <v>2440457.464882157</v>
+        <v>3423893.622882182</v>
       </c>
       <c r="S19">
-        <v>0.1004921903858362</v>
+        <v>0.115630878300762</v>
       </c>
       <c r="T19">
-        <v>0.1004921903858362</v>
+        <v>0.115630878300762</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H20">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I20">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J20">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>110.701412216889</v>
+        <v>328.6456029751266</v>
       </c>
       <c r="R20">
-        <v>996.3127099520011</v>
+        <v>2957.81042677614</v>
       </c>
       <c r="S20">
-        <v>4.102576995217553E-05</v>
+        <v>9.989043328027655E-05</v>
       </c>
       <c r="T20">
-        <v>4.102576995217554E-05</v>
+        <v>9.989043328027655E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H21">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I21">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J21">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>9053.045194922359</v>
+        <v>5124.746223499678</v>
       </c>
       <c r="R21">
-        <v>81477.40675430124</v>
+        <v>46122.7160114971</v>
       </c>
       <c r="S21">
-        <v>0.003355044367508705</v>
+        <v>0.001557644818864616</v>
       </c>
       <c r="T21">
-        <v>0.003355044367508706</v>
+        <v>0.001557644818864616</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H22">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I22">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J22">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>8405.518328281136</v>
+        <v>6063.49378549679</v>
       </c>
       <c r="R22">
-        <v>75649.66495453022</v>
+        <v>54571.44406947112</v>
       </c>
       <c r="S22">
-        <v>0.003115071925091905</v>
+        <v>0.001842973147799515</v>
       </c>
       <c r="T22">
-        <v>0.003115071925091905</v>
+        <v>0.001842973147799515</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H23">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I23">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J23">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>1455.894081088628</v>
+        <v>578.6412349396605</v>
       </c>
       <c r="R23">
-        <v>13103.04672979765</v>
+        <v>5207.771114456945</v>
       </c>
       <c r="S23">
-        <v>0.0005395520657717818</v>
+        <v>0.0001758755423736237</v>
       </c>
       <c r="T23">
-        <v>0.0005395520657717819</v>
+        <v>0.0001758755423736237</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H24">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I24">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J24">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>3391.610191031841</v>
+        <v>1961.417255591568</v>
       </c>
       <c r="R24">
-        <v>30524.49171928657</v>
+        <v>17652.75530032412</v>
       </c>
       <c r="S24">
-        <v>0.001256925423788751</v>
+        <v>0.0005961644328443405</v>
       </c>
       <c r="T24">
-        <v>0.001256925423788751</v>
+        <v>0.0005961644328443406</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>63.29227233333334</v>
+        <v>35.82847833333333</v>
       </c>
       <c r="H25">
-        <v>189.876817</v>
+        <v>107.485435</v>
       </c>
       <c r="I25">
-        <v>0.0112562093943305</v>
+        <v>0.006908881763784279</v>
       </c>
       <c r="J25">
-        <v>0.0112562093943305</v>
+        <v>0.00690888176378428</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>7956.293323984445</v>
+        <v>8673.697247023367</v>
       </c>
       <c r="R25">
-        <v>71606.63991586</v>
+        <v>78063.27522321031</v>
       </c>
       <c r="S25">
-        <v>0.002948589842217181</v>
+        <v>0.002636333388621908</v>
       </c>
       <c r="T25">
-        <v>0.002948589842217181</v>
+        <v>0.002636333388621908</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H26">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I26">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J26">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>2223.289639040727</v>
+        <v>8524.074856805437</v>
       </c>
       <c r="R26">
-        <v>20009.60675136654</v>
+        <v>76716.67371124894</v>
       </c>
       <c r="S26">
-        <v>0.0008239476574123106</v>
+        <v>0.002590856299465689</v>
       </c>
       <c r="T26">
-        <v>0.0008239476574123109</v>
+        <v>0.002590856299465688</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H27">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I27">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J27">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>181818.2910277958</v>
+        <v>132920.4469367217</v>
       </c>
       <c r="R27">
-        <v>1636364.619250163</v>
+        <v>1196284.022430495</v>
       </c>
       <c r="S27">
-        <v>0.06738157383385254</v>
+        <v>0.04040060452998678</v>
       </c>
       <c r="T27">
-        <v>0.06738157383385257</v>
+        <v>0.04040060452998677</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H28">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I28">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J28">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>168813.5809272295</v>
+        <v>157268.7248922695</v>
       </c>
       <c r="R28">
-        <v>1519322.228345065</v>
+        <v>1415418.524030425</v>
       </c>
       <c r="S28">
-        <v>0.06256204864265383</v>
+        <v>0.04780116006029263</v>
       </c>
       <c r="T28">
-        <v>0.06256204864265384</v>
+        <v>0.04780116006029263</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H29">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I29">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J29">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>29239.68322719587</v>
+        <v>15008.20688671533</v>
       </c>
       <c r="R29">
-        <v>263157.1490447629</v>
+        <v>135073.861980438</v>
       </c>
       <c r="S29">
-        <v>0.0108361807996015</v>
+        <v>0.004561680652661856</v>
       </c>
       <c r="T29">
-        <v>0.0108361807996015</v>
+        <v>0.004561680652661855</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H30">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I30">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J30">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>68115.94943895053</v>
+        <v>50873.24266851001</v>
       </c>
       <c r="R30">
-        <v>613043.5449505548</v>
+        <v>457859.1840165901</v>
       </c>
       <c r="S30">
-        <v>0.02524366415743036</v>
+        <v>0.01546270574298457</v>
       </c>
       <c r="T30">
-        <v>0.02524366415743037</v>
+        <v>0.01546270574298457</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1271.140543666667</v>
+        <v>929.2825723333332</v>
       </c>
       <c r="H31">
-        <v>3813.421631</v>
+        <v>2787.847717</v>
       </c>
       <c r="I31">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="J31">
-        <v>0.2260658940127764</v>
+        <v>0.1791955370715012</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>159791.4982125657</v>
+        <v>224969.5232480873</v>
       </c>
       <c r="R31">
-        <v>1438123.483913092</v>
+        <v>2024725.709232786</v>
       </c>
       <c r="S31">
-        <v>0.05921847892182579</v>
+        <v>0.06837852978610973</v>
       </c>
       <c r="T31">
-        <v>0.05921847892182579</v>
+        <v>0.06837852978610973</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H32">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I32">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J32">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>3449.348484846366</v>
+        <v>22583.65716743084</v>
       </c>
       <c r="R32">
-        <v>31044.13636361729</v>
+        <v>203252.9145068776</v>
       </c>
       <c r="S32">
-        <v>0.00127832314502852</v>
+        <v>0.006864206546766504</v>
       </c>
       <c r="T32">
-        <v>0.001278323145028521</v>
+        <v>0.006864206546766504</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H33">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I33">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J33">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>282084.0954148821</v>
+        <v>352159.014859426</v>
       </c>
       <c r="R33">
-        <v>2538756.858733939</v>
+        <v>3169431.133734833</v>
       </c>
       <c r="S33">
-        <v>0.1045399238718376</v>
+        <v>0.1070372348189481</v>
       </c>
       <c r="T33">
-        <v>0.1045399238718376</v>
+        <v>0.1070372348189481</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H34">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I34">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J34">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>261907.7871671589</v>
+        <v>416667.2660424149</v>
       </c>
       <c r="R34">
-        <v>2357170.084504431</v>
+        <v>3750005.394381734</v>
       </c>
       <c r="S34">
-        <v>0.09706261564171738</v>
+        <v>0.1266442434096255</v>
       </c>
       <c r="T34">
-        <v>0.09706261564171739</v>
+        <v>0.1266442434096255</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H35">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I35">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J35">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>45364.24551532228</v>
+        <v>39762.69621293284</v>
       </c>
       <c r="R35">
-        <v>408278.2096379005</v>
+        <v>357864.2659163955</v>
       </c>
       <c r="S35">
-        <v>0.01681191832421525</v>
+        <v>0.01208570240144818</v>
       </c>
       <c r="T35">
-        <v>0.01681191832421525</v>
+        <v>0.01208570240144818</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H36">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I36">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J36">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>105679.2794179039</v>
+        <v>134783.4094281662</v>
       </c>
       <c r="R36">
-        <v>951113.5147611351</v>
+        <v>1213050.684853496</v>
       </c>
       <c r="S36">
-        <v>0.03916457540411714</v>
+        <v>0.040966844056001</v>
       </c>
       <c r="T36">
-        <v>0.03916457540411715</v>
+        <v>0.040966844056001</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1972.125732666667</v>
+        <v>2462.03833</v>
       </c>
       <c r="H37">
-        <v>5916.377198</v>
+        <v>7386.11499</v>
       </c>
       <c r="I37">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989308</v>
       </c>
       <c r="J37">
-        <v>0.350732552023612</v>
+        <v>0.4747600933989309</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>247910.3723474635</v>
+        <v>596033.548684629</v>
       </c>
       <c r="R37">
-        <v>2231193.351127172</v>
+        <v>5364301.938161661</v>
       </c>
       <c r="S37">
-        <v>0.09187519563669609</v>
+        <v>0.1811618621661416</v>
       </c>
       <c r="T37">
-        <v>0.09187519563669612</v>
+        <v>0.1811618621661416</v>
       </c>
     </row>
   </sheetData>
